--- a/biology/Zoologie/Blattinae/Blattinae.xlsx
+++ b/biology/Zoologie/Blattinae/Blattinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blattinae sont une sous-famille de Blattes dans la famille des Blattidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille est attribuée, en 1810, à l'entomologiste français Pierre-André Latreille (1762-1833)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille est attribuée, en 1810, à l'entomologiste français Pierre-André Latreille (1762-1833).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 août 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 août 2022) :
 genre Apterisca Princis, 1963
 genre Blatta Linnaeus, 1758
 genre Brinckella Princis, 1963
@@ -570,7 +586,7 @@
 genre Scabinopsis Bei-Bienko, 1969
 genre Shelfordella Adelung, 1910
 genre Thyrsocera Burmeister, 1838
-Auxquels s'ajoutent les genres éteints suivants[3],[1] :
+Auxquels s'ajoutent les genres éteints suivants, :
 genre †Bubosa Šmídová, 2020 (monotypique avec l'espèce †Bubosa poinari)
 genre †Eoplaneta Piton &amp; Théobald, 1937
 genre †Prostylopyga Piton, 1940
